--- a/RegressionTests/NeuralNetClassifier_Unit_Test_3/expected_aptrans_601595_pass.xlsx
+++ b/RegressionTests/NeuralNetClassifier_Unit_Test_3/expected_aptrans_601595_pass.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="83">
   <si>
     <t>Medifix Employees - Irish Life 601703</t>
   </si>
@@ -131,24 +131,52 @@
     <t>EE</t>
   </si>
   <si>
+    <t>Refno 0853772 does not exist for Scheme ID 601597
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>853772</t>
   </si>
   <si>
+    <t>Refno 0853763 does not exist for Scheme ID 601597
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>853763</t>
   </si>
   <si>
+    <t>Refno 0918945 does not exist for Scheme ID 601597
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>918945</t>
   </si>
   <si>
+    <t>Refno 0862680 does not exist for Scheme ID 601597
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>862680</t>
   </si>
   <si>
+    <t>Refno 0911389 does not exist for Scheme ID 601597
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>911389</t>
   </si>
   <si>
+    <t>Refno 0853768 does not exist for Scheme ID 601597
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>853768</t>
   </si>
   <si>
+    <t>Refno 0853760 does not exist for Scheme ID 601597
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>853760</t>
   </si>
   <si>
@@ -164,6 +192,81 @@
     <t>2097.67</t>
   </si>
   <si>
+    <t>Payment Frequency</t>
+  </si>
+  <si>
+    <t>Invoice Number</t>
+  </si>
+  <si>
+    <t>Paypoint</t>
+  </si>
+  <si>
+    <t>Collection Method</t>
+  </si>
+  <si>
+    <t>Date Received</t>
+  </si>
+  <si>
+    <t>Override Date</t>
+  </si>
+  <si>
+    <t>Amount Received</t>
+  </si>
+  <si>
+    <t>MIRO Date</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>559024</t>
+  </si>
+  <si>
+    <t>159701</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>30/12/2011</t>
+  </si>
+  <si>
+    <t>1,406.45</t>
+  </si>
+  <si>
+    <t>01/11/2011</t>
+  </si>
+  <si>
+    <t>ILIM Nov 2011</t>
+  </si>
+  <si>
+    <t>555355</t>
+  </si>
+  <si>
+    <t>30/11/2011</t>
+  </si>
+  <si>
+    <t>01/10/2011</t>
+  </si>
+  <si>
+    <t>ILIM Oct 2011</t>
+  </si>
+  <si>
+    <t>551891</t>
+  </si>
+  <si>
+    <t>25/10/2011</t>
+  </si>
+  <si>
+    <t>16,000.00</t>
+  </si>
+  <si>
+    <t>ILIM SPAV S O'Dwod 16K</t>
+  </si>
+  <si>
     <t>1_Errors_found</t>
   </si>
   <si>
@@ -173,10 +276,10 @@
     <t>Error Description</t>
   </si>
   <si>
-    <t>schemeNotNull</t>
-  </si>
-  <si>
-    <t>The Scheme ID is missing</t>
+    <t>schemeActive</t>
+  </si>
+  <si>
+    <t>Scheme 601597 is not active. Its current status is PUPD</t>
   </si>
 </sst>
 </file>
@@ -188,7 +291,7 @@
     <numFmt numFmtId="165" formatCode="\€#,##0.00"/>
     <numFmt numFmtId="166" formatCode="[$€-83C]#,##0.00"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -265,6 +368,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -347,7 +465,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment/>
@@ -453,12 +571,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -1260,7 +1379,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="26"/>
+    <col min="1" max="1" width="47.25" style="26"/>
     <col min="2" max="16384" width="9.25" style="26"/>
   </cols>
   <sheetData>
@@ -1287,10 +1406,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25">
-      <c r="A2" s="29"/>
+    <row r="2" spans="1:7" ht="30">
+      <c r="A2" s="29" t="s">
+        <v>35</v>
+      </c>
       <c r="B2" s="26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>12</v>
@@ -1308,10 +1429,12 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25">
-      <c r="A3" s="29"/>
+    <row r="3" spans="1:7" ht="30">
+      <c r="A3" s="29" t="s">
+        <v>37</v>
+      </c>
       <c r="B3" s="26" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>14</v>
@@ -1329,10 +1452,12 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25">
-      <c r="A4" s="29"/>
+    <row r="4" spans="1:7" ht="30">
+      <c r="A4" s="29" t="s">
+        <v>39</v>
+      </c>
       <c r="B4" s="26" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>16</v>
@@ -1350,10 +1475,12 @@
         <v>104.17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25">
-      <c r="A5" s="29"/>
+    <row r="5" spans="1:7" ht="30">
+      <c r="A5" s="29" t="s">
+        <v>41</v>
+      </c>
       <c r="B5" s="26" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>18</v>
@@ -1371,10 +1498,12 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25">
-      <c r="A6" s="29"/>
+    <row r="6" spans="1:7" ht="30">
+      <c r="A6" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="B6" s="26" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>20</v>
@@ -1392,10 +1521,12 @@
         <v>160.96</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.25">
-      <c r="A7" s="29"/>
+    <row r="7" spans="1:7" ht="30">
+      <c r="A7" s="29" t="s">
+        <v>45</v>
+      </c>
       <c r="B7" s="26" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>22</v>
@@ -1413,10 +1544,12 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.25">
-      <c r="A8" s="29"/>
+    <row r="8" spans="1:7" ht="30">
+      <c r="A8" s="29" t="s">
+        <v>47</v>
+      </c>
       <c r="B8" s="26" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>24</v>
@@ -1442,7 +1575,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView windowProtection="1" workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -1450,7 +1583,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="9.25" style="26"/>
+    <col min="1" max="1" width="17.75" style="26"/>
+    <col min="2" max="2" width="14.125" style="26"/>
+    <col min="3" max="3" width="8.25" style="26"/>
+    <col min="4" max="4" width="15.75" style="26"/>
+    <col min="5" max="5" width="13.25" style="26"/>
+    <col min="6" max="6" width="12.625" style="26"/>
+    <col min="7" max="7" width="15.75" style="26"/>
+    <col min="8" max="8" width="10.5" style="26"/>
+    <col min="9" max="9" width="22.875" style="26"/>
+    <col min="10" max="16384" width="9.25" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15">
@@ -1477,22 +1619,138 @@
     </row>
     <row r="4" spans="1:1" ht="15">
       <c r="A4" s="26" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15">
       <c r="A5" s="26" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15">
       <c r="A8" s="26" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15">
       <c r="A9" s="26" t="s">
-        <v>45</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15">
+      <c r="A12" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15">
+      <c r="A13" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15">
+      <c r="A14" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15">
+      <c r="A15" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1516,25 +1774,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="30"/>
+      <c r="A1" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="31"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>48</v>
+      <c r="A2" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75">
       <c r="A3" s="26" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/RegressionTests/NeuralNetClassifier_Unit_Test_3/expected_aptrans_601595_pass.xlsx
+++ b/RegressionTests/NeuralNetClassifier_Unit_Test_3/expected_aptrans_601595_pass.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
   <si>
     <t>Medifix Employees - Irish Life 601703</t>
   </si>
@@ -131,52 +131,24 @@
     <t>EE</t>
   </si>
   <si>
-    <t>Refno 0853772 does not exist for Scheme ID 601597
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>853772</t>
   </si>
   <si>
-    <t>Refno 0853763 does not exist for Scheme ID 601597
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>853763</t>
   </si>
   <si>
-    <t>Refno 0918945 does not exist for Scheme ID 601597
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>918945</t>
   </si>
   <si>
-    <t>Refno 0862680 does not exist for Scheme ID 601597
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>862680</t>
   </si>
   <si>
-    <t>Refno 0911389 does not exist for Scheme ID 601597
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>911389</t>
   </si>
   <si>
-    <t>Refno 0853768 does not exist for Scheme ID 601597
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>853768</t>
   </si>
   <si>
-    <t>Refno 0853760 does not exist for Scheme ID 601597
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>853760</t>
   </si>
   <si>
@@ -192,81 +164,6 @@
     <t>2097.67</t>
   </si>
   <si>
-    <t>Payment Frequency</t>
-  </si>
-  <si>
-    <t>Invoice Number</t>
-  </si>
-  <si>
-    <t>Paypoint</t>
-  </si>
-  <si>
-    <t>Collection Method</t>
-  </si>
-  <si>
-    <t>Date Received</t>
-  </si>
-  <si>
-    <t>Override Date</t>
-  </si>
-  <si>
-    <t>Amount Received</t>
-  </si>
-  <si>
-    <t>MIRO Date</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>Monthly</t>
-  </si>
-  <si>
-    <t>559024</t>
-  </si>
-  <si>
-    <t>159701</t>
-  </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>30/12/2011</t>
-  </si>
-  <si>
-    <t>1,406.45</t>
-  </si>
-  <si>
-    <t>01/11/2011</t>
-  </si>
-  <si>
-    <t>ILIM Nov 2011</t>
-  </si>
-  <si>
-    <t>555355</t>
-  </si>
-  <si>
-    <t>30/11/2011</t>
-  </si>
-  <si>
-    <t>01/10/2011</t>
-  </si>
-  <si>
-    <t>ILIM Oct 2011</t>
-  </si>
-  <si>
-    <t>551891</t>
-  </si>
-  <si>
-    <t>25/10/2011</t>
-  </si>
-  <si>
-    <t>16,000.00</t>
-  </si>
-  <si>
-    <t>ILIM SPAV S O'Dwod 16K</t>
-  </si>
-  <si>
     <t>1_Errors_found</t>
   </si>
   <si>
@@ -276,10 +173,10 @@
     <t>Error Description</t>
   </si>
   <si>
-    <t>schemeActive</t>
-  </si>
-  <si>
-    <t>Scheme 601597 is not active. Its current status is PUPD</t>
+    <t>schemeNotNull</t>
+  </si>
+  <si>
+    <t>The Scheme ID is missing</t>
   </si>
 </sst>
 </file>
@@ -291,7 +188,7 @@
     <numFmt numFmtId="165" formatCode="\€#,##0.00"/>
     <numFmt numFmtId="166" formatCode="[$€-83C]#,##0.00"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -368,21 +265,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -465,7 +347,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment/>
@@ -571,13 +453,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -1379,7 +1260,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="47.25" style="26"/>
+    <col min="1" max="1" width="16.25" style="26"/>
     <col min="2" max="16384" width="9.25" style="26"/>
   </cols>
   <sheetData>
@@ -1406,12 +1287,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:7" ht="14.25">
+      <c r="A2" s="29"/>
+      <c r="B2" s="26" t="s">
         <v>35</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>36</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>12</v>
@@ -1429,12 +1308,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="29" t="s">
-        <v>37</v>
-      </c>
+    <row r="3" spans="1:7" ht="14.25">
+      <c r="A3" s="29"/>
       <c r="B3" s="26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>14</v>
@@ -1452,12 +1329,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30">
-      <c r="A4" s="29" t="s">
-        <v>39</v>
-      </c>
+    <row r="4" spans="1:7" ht="14.25">
+      <c r="A4" s="29"/>
       <c r="B4" s="26" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>16</v>
@@ -1475,12 +1350,10 @@
         <v>104.17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30">
-      <c r="A5" s="29" t="s">
-        <v>41</v>
-      </c>
+    <row r="5" spans="1:7" ht="14.25">
+      <c r="A5" s="29"/>
       <c r="B5" s="26" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>18</v>
@@ -1498,12 +1371,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30">
-      <c r="A6" s="29" t="s">
-        <v>43</v>
-      </c>
+    <row r="6" spans="1:7" ht="14.25">
+      <c r="A6" s="29"/>
       <c r="B6" s="26" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>20</v>
@@ -1521,12 +1392,10 @@
         <v>160.96</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30">
-      <c r="A7" s="29" t="s">
-        <v>45</v>
-      </c>
+    <row r="7" spans="1:7" ht="14.25">
+      <c r="A7" s="29"/>
       <c r="B7" s="26" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>22</v>
@@ -1544,12 +1413,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30">
-      <c r="A8" s="29" t="s">
-        <v>47</v>
-      </c>
+    <row r="8" spans="1:7" ht="14.25">
+      <c r="A8" s="29"/>
       <c r="B8" s="26" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>24</v>
@@ -1575,7 +1442,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView windowProtection="1" workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -1583,16 +1450,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.75" style="26"/>
-    <col min="2" max="2" width="14.125" style="26"/>
-    <col min="3" max="3" width="8.25" style="26"/>
-    <col min="4" max="4" width="15.75" style="26"/>
-    <col min="5" max="5" width="13.25" style="26"/>
-    <col min="6" max="6" width="12.625" style="26"/>
-    <col min="7" max="7" width="15.75" style="26"/>
-    <col min="8" max="8" width="10.5" style="26"/>
-    <col min="9" max="9" width="22.875" style="26"/>
-    <col min="10" max="16384" width="9.25" style="26"/>
+    <col min="1" max="16384" width="9.25" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15">
@@ -1619,138 +1477,22 @@
     </row>
     <row r="4" spans="1:1" ht="15">
       <c r="A4" s="26" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15">
       <c r="A5" s="26" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15">
       <c r="A8" s="26" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15">
       <c r="A9" s="26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15">
-      <c r="A12" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="H12" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="I12" s="30" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15">
-      <c r="A13" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="H13" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="I13" s="26" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15">
-      <c r="A14" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="I14" s="26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15">
-      <c r="A15" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="F15" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="G15" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="H15" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="I15" s="26" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1774,25 +1516,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="31"/>
+      <c r="A1" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="30"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>80</v>
+      <c r="A2" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75">
       <c r="A3" s="26" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/RegressionTests/NeuralNetClassifier_Unit_Test_3/expected_aptrans_601595_pass.xlsx
+++ b/RegressionTests/NeuralNetClassifier_Unit_Test_3/expected_aptrans_601595_pass.xlsx
@@ -431,10 +431,10 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color auto="1"/>
-      </right>
-      <top/>
+      </top>
       <bottom/>
     </border>
   </borders>
@@ -465,7 +465,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment/>
@@ -568,11 +568,14 @@
       <protection/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1430,7 +1433,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="26" t="s">
@@ -1453,7 +1456,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="30">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="30" t="s">
         <v>39</v>
       </c>
       <c r="B4" s="26" t="s">
@@ -1476,7 +1479,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="30">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="30" t="s">
         <v>41</v>
       </c>
       <c r="B5" s="26" t="s">
@@ -1499,7 +1502,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="30">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="30" t="s">
         <v>43</v>
       </c>
       <c r="B6" s="26" t="s">
@@ -1522,7 +1525,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="30">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="30" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="26" t="s">
@@ -1545,7 +1548,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="30">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="30" t="s">
         <v>47</v>
       </c>
       <c r="B8" s="26" t="s">
@@ -1638,31 +1641,31 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="30" t="s">
+      <c r="G12" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="H12" s="30" t="s">
+      <c r="H12" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="I12" s="30" t="s">
+      <c r="I12" s="31" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1774,16 +1777,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="32"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="33" t="s">
         <v>80</v>
       </c>
     </row>

--- a/RegressionTests/NeuralNetClassifier_Unit_Test_3/expected_aptrans_601595_pass.xlsx
+++ b/RegressionTests/NeuralNetClassifier_Unit_Test_3/expected_aptrans_601595_pass.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
   <si>
     <t>Medifix Employees - Irish Life 601703</t>
   </si>
@@ -131,52 +131,24 @@
     <t>EE</t>
   </si>
   <si>
-    <t>Refno 0853772 does not exist for Scheme ID 601597
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>853772</t>
   </si>
   <si>
-    <t>Refno 0853763 does not exist for Scheme ID 601597
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>853763</t>
   </si>
   <si>
-    <t>Refno 0918945 does not exist for Scheme ID 601597
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>918945</t>
   </si>
   <si>
-    <t>Refno 0862680 does not exist for Scheme ID 601597
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>862680</t>
   </si>
   <si>
-    <t>Refno 0911389 does not exist for Scheme ID 601597
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>911389</t>
   </si>
   <si>
-    <t>Refno 0853768 does not exist for Scheme ID 601597
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>853768</t>
   </si>
   <si>
-    <t>Refno 0853760 does not exist for Scheme ID 601597
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>853760</t>
   </si>
   <si>
@@ -192,81 +164,6 @@
     <t>2097.67</t>
   </si>
   <si>
-    <t>Payment Frequency</t>
-  </si>
-  <si>
-    <t>Invoice Number</t>
-  </si>
-  <si>
-    <t>Paypoint</t>
-  </si>
-  <si>
-    <t>Collection Method</t>
-  </si>
-  <si>
-    <t>Date Received</t>
-  </si>
-  <si>
-    <t>Override Date</t>
-  </si>
-  <si>
-    <t>Amount Received</t>
-  </si>
-  <si>
-    <t>MIRO Date</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>Monthly</t>
-  </si>
-  <si>
-    <t>559024</t>
-  </si>
-  <si>
-    <t>159701</t>
-  </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>30/12/2011</t>
-  </si>
-  <si>
-    <t>1,406.45</t>
-  </si>
-  <si>
-    <t>01/11/2011</t>
-  </si>
-  <si>
-    <t>ILIM Nov 2011</t>
-  </si>
-  <si>
-    <t>555355</t>
-  </si>
-  <si>
-    <t>30/11/2011</t>
-  </si>
-  <si>
-    <t>01/10/2011</t>
-  </si>
-  <si>
-    <t>ILIM Oct 2011</t>
-  </si>
-  <si>
-    <t>551891</t>
-  </si>
-  <si>
-    <t>25/10/2011</t>
-  </si>
-  <si>
-    <t>16,000.00</t>
-  </si>
-  <si>
-    <t>ILIM SPAV S O'Dwod 16K</t>
-  </si>
-  <si>
     <t>1_Errors_found</t>
   </si>
   <si>
@@ -276,10 +173,10 @@
     <t>Error Description</t>
   </si>
   <si>
-    <t>schemeActive</t>
-  </si>
-  <si>
-    <t>Scheme 601597 is not active. Its current status is PUPD</t>
+    <t>schemeNotNull</t>
+  </si>
+  <si>
+    <t>The Scheme ID is missing</t>
   </si>
 </sst>
 </file>
@@ -291,7 +188,7 @@
     <numFmt numFmtId="165" formatCode="\€#,##0.00"/>
     <numFmt numFmtId="166" formatCode="[$€-83C]#,##0.00"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -368,23 +265,16 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -465,7 +355,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment/>
@@ -568,19 +458,18 @@
       <protection/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -1382,11 +1271,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="47.25" style="26"/>
+    <col min="1" max="1" width="16.25" style="26"/>
     <col min="2" max="16384" width="9.25" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
+    <row r="1" spans="1:7" ht="30">
       <c r="A1" s="27" t="s">
         <v>29</v>
       </c>
@@ -1409,12 +1298,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:7" ht="14.25">
+      <c r="A2" s="29"/>
+      <c r="B2" s="26" t="s">
         <v>35</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>36</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>12</v>
@@ -1432,12 +1319,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="30" t="s">
-        <v>37</v>
-      </c>
+    <row r="3" spans="1:7" ht="14.25">
+      <c r="A3" s="30"/>
       <c r="B3" s="26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>14</v>
@@ -1455,12 +1340,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30">
-      <c r="A4" s="30" t="s">
-        <v>39</v>
-      </c>
+    <row r="4" spans="1:7" ht="14.25">
+      <c r="A4" s="30"/>
       <c r="B4" s="26" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>16</v>
@@ -1478,12 +1361,10 @@
         <v>104.17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30">
-      <c r="A5" s="30" t="s">
-        <v>41</v>
-      </c>
+    <row r="5" spans="1:7" ht="14.25">
+      <c r="A5" s="30"/>
       <c r="B5" s="26" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>18</v>
@@ -1501,12 +1382,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30">
-      <c r="A6" s="30" t="s">
-        <v>43</v>
-      </c>
+    <row r="6" spans="1:7" ht="14.25">
+      <c r="A6" s="30"/>
       <c r="B6" s="26" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>20</v>
@@ -1524,12 +1403,10 @@
         <v>160.96</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30">
-      <c r="A7" s="30" t="s">
-        <v>45</v>
-      </c>
+    <row r="7" spans="1:7" ht="14.25">
+      <c r="A7" s="30"/>
       <c r="B7" s="26" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>22</v>
@@ -1547,12 +1424,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30">
-      <c r="A8" s="30" t="s">
-        <v>47</v>
-      </c>
+    <row r="8" spans="1:7" ht="14.25">
+      <c r="A8" s="30"/>
       <c r="B8" s="26" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>24</v>
@@ -1578,7 +1453,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView windowProtection="1" workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -1586,16 +1461,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.75" style="26"/>
-    <col min="2" max="2" width="14.125" style="26"/>
-    <col min="3" max="3" width="8.25" style="26"/>
-    <col min="4" max="4" width="15.75" style="26"/>
-    <col min="5" max="5" width="13.25" style="26"/>
-    <col min="6" max="6" width="12.625" style="26"/>
-    <col min="7" max="7" width="15.75" style="26"/>
-    <col min="8" max="8" width="10.5" style="26"/>
-    <col min="9" max="9" width="22.875" style="26"/>
-    <col min="10" max="16384" width="9.25" style="26"/>
+    <col min="1" max="16384" width="9.25" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15">
@@ -1622,138 +1488,22 @@
     </row>
     <row r="4" spans="1:1" ht="15">
       <c r="A4" s="26" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15">
       <c r="A5" s="26" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15">
       <c r="A8" s="26" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15">
       <c r="A9" s="26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15">
-      <c r="A12" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="H12" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="I12" s="31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15">
-      <c r="A13" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="H13" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="I13" s="26" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15">
-      <c r="A14" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="I14" s="26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15">
-      <c r="A15" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="F15" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="G15" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="H15" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="I15" s="26" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1777,25 +1527,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="32"/>
+      <c r="A1" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="31"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>80</v>
+      <c r="A2" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75">
       <c r="A3" s="26" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
